--- a/Brighway/results/sterilization_CONSQ/data_sterilization_CONSQ_recipe.xlsx
+++ b/Brighway/results/sterilization_CONSQ/data_sterilization_CONSQ_recipe.xlsx
@@ -91,7 +91,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009373132147422808], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00044955142785960015], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0001399039507806364], ["'market for corrugated board box' (kilogram, RER, None)", 6.07330030126587e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000869946882061697], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.147121310194442e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.5038150629047625e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.468249267068617e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0009782504952267174], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0006808640553075914], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.8854838811935067e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006799317415353674], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.9310921829082434e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.019118264995002e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599291760822626], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005279123113127134], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4955512956489453e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.802289506576002e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006459351544585991], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013061077738e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.333597988802278e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.281865321389215e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1761043889420144e-06]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006799317415353674], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.9310921829082434e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.019118264995002e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599291760822626], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005279123113127134], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4955512956489453e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.802289506576002e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006459351544585991], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013061077738e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.0720604849837656e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.322491721770425e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1761043889420144e-06]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006799317415353674], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.9310921829082434e-05], ["'market for polysulfone' (kilogram, GLO, None)", 4.019118264995002e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011599291760822626], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.4955512956489453e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 5.802289506576002e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0006459351544585991], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.505013061077738e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.56196943518293e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.2010806297425175e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.1761043889420144e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0002127414392301742], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.212541559450556e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.628021274492795e-06]]</t>
@@ -115,7 +115,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.43164622661583624], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.12182433133800145], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.059602012551743425], ["'market for corrugated board box' (kilogram, RER, None)", 0.012033055159866206], ["'autoclave - CONSQ' (unit, GLO, None)", 0.07694755586105104], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.00017698213893465968], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.5188203930828682], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.06671532758970196], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.09288150075325631], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.40909623503694853], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.010713315666047208]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469573757346], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020296080960062884], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135481129035], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259674114806805], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.05095178069032697], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0016833828934874758], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.006883714495510692], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.14809046095069475], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007574698738365294], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00012662051612125463], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0005576996064779639], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001179234066384025]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469573757346], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020296080960062884], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135481129035], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259674114806805], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.05095178069032697], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0016833828934874758], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.006883714495510692], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.14809046095069475], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007574698738365294], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9673497579186915e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0005000557751524016], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001179234066384025]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.15588469573757346], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.020296080960062884], ["'market for polysulfone' (kilogram, GLO, None)", 0.0022208135481129035], ["'autoclave - CONSQ' (unit, GLO, None)", 0.10259674114806805], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0016833828934874758], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.006883714495510692], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.14809046095069475], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007574698738365294], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.004331432180180747], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.019233649117895612], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.001179234066384025], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.04710111535816824], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.033035407409446806], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.001203580463941589]]</t>
@@ -139,7 +139,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00732856074241025], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007628733627727995], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0014347538323559892], ["'market for corrugated board box' (kilogram, RER, None)", 0.0004307463569220237], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03363438980956561], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.5633647948354806e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.02706347531858915], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.003478861910737126], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0454400381957811], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.018402037470177345], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00036726213701925205]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0037239961846699766], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0014142962062695119], ["'market for polysulfone' (kilogram, GLO, None)", 5.2525208840469945e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484585307942081], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.03185291955069402], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.632351544531893e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.001307720348047313], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.003537796375436477], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.777505021870645e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.194603922479807e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.5086539978994773e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0425208849081916e-05]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0037239961846699766], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0014142962062695119], ["'market for polysulfone' (kilogram, GLO, None)", 5.2525208840469945e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484585307942081], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.03185291955069402], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.632351544531893e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.001307720348047313], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.003537796375436477], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.777505021870645e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.624785066917851e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.2493595206765873e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0425208849081916e-05]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0037239961846699766], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0014142962062695119], ["'market for polysulfone' (kilogram, GLO, None)", 5.2525208840469945e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.04484585307942081], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.632351544531893e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.001307720348047313], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.003537796375436477], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.777505021870645e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.002119048918392377], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0008651713250888061], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.0425208849081916e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0015929806334395542], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0017226269388827405], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.3540235529911023e-05]]</t>
@@ -163,7 +163,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.009943939679404119], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00993839383808938], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0019081200554037345], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006031781071931609], ["'autoclave - CONSQ' (unit, GLO, None)", 0.03975311500449654], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.029040048623045e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.03918148502601698], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.005036941335926341], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.05610026432417348], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.023589193982826672], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00046358015869183246]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214792830190352], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018439751155552304], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643809217301e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.053004153339328716], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.038731920318630306], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661685441919e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0018338777222267567], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.004954053188680836], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.0296421885980545e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.647857071276506e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.215792049556898e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.102710800930042e-05]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214792830190352], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018439751155552304], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643809217301e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.053004153339328716], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.038731920318630306], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661685441919e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0018338777222267567], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.004954053188680836], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.0296421885980545e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.188275819643966e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.8834077833146966e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.102710800930042e-05]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005214792830190352], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0018439751155552304], ["'market for polysulfone' (kilogram, GLO, None)", 6.729643809217301e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.053004153339328716], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.828661685441919e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0018338777222267567], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.004954053188680836], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 5.0296421885980545e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0026161774760282584], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0011090453570140656], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.102710800930042e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0016572147215531006], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.002494140629169221], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.126068145696376e-05]]</t>
@@ -187,7 +187,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.2082570396951713], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.7513963400112506], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.15372802814973155], ["'market for corrugated board box' (kilogram, RER, None)", 0.0446523359414276], ["'autoclave - CONSQ' (unit, GLO, None)", 3.079757944469136], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 0.0010919386368596943], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5063495590552773], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.1936879502035309], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.8476349428130905], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.8511254943800761], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.06605782735175819]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322461089981052], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.06762233426392682], ["'market for polysulfone' (kilogram, GLO, None)", 0.008388736573132282], ["'autoclave - CONSQ' (unit, GLO, None)", 4.106343925958848], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.140538093141574], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.032035708158735486], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.461299580415744], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1256338035482], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003957377094846856], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0038820325173446538], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.002523543047673987], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271104744106625]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322461089981052], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.06762233426392682], ["'market for polysulfone' (kilogram, GLO, None)", 0.008388736573132282], ["'autoclave - CONSQ' (unit, GLO, None)", 4.106343925958848], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.140538093141574], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.032035708158735486], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.461299580415744], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1256338035482], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003957377094846856], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.000603165740212023], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0022627096382664036], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271104744106625]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1322461089981052], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.06762233426392682], ["'market for polysulfone' (kilogram, GLO, None)", 0.008388736573132282], ["'autoclave - CONSQ' (unit, GLO, None)", 4.106343925958848], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.032035708158735486], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.461299580415744], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.1256338035482], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0003957377094846856], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.13279649369011035], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.08703061818420738], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.007271104744106625], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.12478441363795054], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.09590840030982561], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0014486257532289734]]</t>
@@ -211,7 +211,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.33450165605565807], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.03284935370365375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.03946367738919338], ["'market for corrugated board box' (kilogram, RER, None)", 0.003039410114538076], ["'autoclave - CONSQ' (unit, GLO, None)", 0.01992025886563976], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.055884664408114e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0019181663570844239], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00024196945177882293], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0228963993289783], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.1247610741286634], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023269284796484683]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0338324205565888], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.006149296255247429], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011275973986166596], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560345154186347], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0124126627034299], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426941282114], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0022789633866841545], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03214079952875935], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235444577208e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.121346960203956e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00017008027937250375], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0002561292338222575]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0338324205565888], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.006149296255247429], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011275973986166596], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560345154186347], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0124126627034299], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426941282114], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0022789633866841545], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03214079952875935], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235444577208e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.8497521370525356e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00015250078169656175], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0002561292338222575]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0338324205565888], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.006149296255247429], ["'market for polysulfone' (kilogram, GLO, None)", 0.0011275973986166596], ["'autoclave - CONSQ' (unit, GLO, None)", 0.026560345154186347], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0005350426941282114], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0022789633866841545], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03214079952875935], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 4.876235444577208e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010677497678172317], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.005865638736923963], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0002561292338222575], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0277338871874], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0001198159359917132], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 3.411349430421446e-05]]</t>
@@ -235,7 +235,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 4.582749602328393e-05], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.253406693267801e-05], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.4068436004574863e-05], ["'market for corrugated board box' (kilogram, RER, None)", 2.1021773081307284e-05], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7437527628467686e-05], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.042254585332251e-08], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.69146127552493e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0313146977746415e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.743330420275636e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.164803187631871e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.525843320370414e-06]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.1183517361334445e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2403929306422765e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126690849697366e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583370171290246e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.8681012979805817e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.6732486665424977e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9159328778864535e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.862434149326772e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.64055266883484e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.103087546860905e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.767403305174551e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677744651515e-07]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.1183517361334445e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2403929306422765e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126690849697366e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583370171290246e-05], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.8681012979805817e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.6732486665424977e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9159328778864535e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.862434149326772e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.64055266883484e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.928855731673521e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.75784449955171e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677744651515e-07]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 5.1183517361334445e-05], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.2403929306422765e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.9126690849697366e-07], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6583370171290246e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.6732486665424977e-07], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9159328778864535e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.862434149326772e-05], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.64055266883484e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.7456632065522443e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.368530402076303e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.981677744651515e-07], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.8922751406692313e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.1067576881080537e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.105538547307704e-08]]</t>
@@ -259,7 +259,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 5.376047601383389e-06], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 7.425815042982944e-06], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.9594788448029876e-06], ["'market for corrugated board box' (kilogram, RER, None)", 1.211879934203146e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00019957751046573676], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 4.010848746161401e-09], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.091738315193258e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0367604717242909e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.999232967860844e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.311187983542773e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.2126545792371094e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.692348454181037e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.0619203802001945e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756899603499e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000266103347287649], ["'cabinet washer - CONSQ' (unit, GLO, None)", 7.722947814340194e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.5525177514527734e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.904070773782105e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.507731031471985e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.849922067303833e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.451946171982194e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.603714122454255e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.4355089855573317e-06]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.692348454181037e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.0619203802001945e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756899603499e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000266103347287649], ["'cabinet washer - CONSQ' (unit, GLO, None)", 7.722947814340194e-05], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.5525177514527734e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.904070773782105e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.507731031471985e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.849922067303833e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -8.470890271339252e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.714434230757383e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.4355089855573317e-06]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.692348454181037e-06], ["'alubox production - CONSQ' (kilogram, GLO, None)", 2.0619203802001945e-06], ["'market for polysulfone' (kilogram, GLO, None)", 8.462756899603499e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 0.000266103347287649], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 4.5525177514527734e-08], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.904070773782105e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 3.507731031471985e-06], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.849922067303833e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.86500069793768e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.967203430302345e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.4355089855573317e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.710011126956464e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.133723509544594e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.567638196471914e-07]]</t>
@@ -283,7 +283,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.010006831190127645], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00506018629761788], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0016435175300126624], ["'market for corrugated board box' (kilogram, RER, None)", 0.0008303322918227148], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004074331901081649], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.0727743294935105e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.001199187820771308], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.00015454201257603448], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.013952580142577066], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006985702677056353], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.00021790980747629787]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03049272768333022], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011654749923722262], ["'market for polysulfone' (kilogram, GLO, None)", 4.9048417751762906e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432442534775532], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.006515241714290287], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.236567102895218e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004184995101868683], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.028968091299163706], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.73665698786946e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.9020826370684356e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.523244900101604e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.398572733085959e-05]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03049272768333022], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011654749923722262], ["'market for polysulfone' (kilogram, GLO, None)", 4.9048417751762906e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432442534775532], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.006515241714290287], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.236567102895218e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004184995101868683], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.028968091299163706], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.73665698786946e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.9553360941874943e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.538922307227102e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.398572733085959e-05]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.03049272768333022], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0011654749923722262], ["'market for polysulfone' (kilogram, GLO, None)", 4.9048417751762906e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.005432442534775532], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.236567102895218e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0004184995101868683], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.028968091299163706], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 6.73665698786946e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006506640626604046], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003284326342438982], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.398572733085959e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.001317033418733884], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.652451890400675e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.640743614128734e-06]]</t>
@@ -307,7 +307,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.16693493802136225], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.1381999308804005], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.032984976269236056], ["'market for corrugated board box' (kilogram, RER, None)", 0.01535703237139428], ["'autoclave - CONSQ' (unit, GLO, None)", 0.17242773529175726], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 5.890562760762136e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.3265031341780342], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.041972780641797526], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.45241442262645803], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.2775324652763353], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.021540668058328702]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032567160465985], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.02856025919231978], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311050862138833], ["'autoclave - CONSQ' (unit, GLO, None)", 0.22990364705567634], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.2674130444563259], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0014073612104023962], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.041556581126541675], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12380938802442686], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206243041968], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0006167530372473358], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00037834556618564837], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023710203618431775]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032567160465985], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.02856025919231978], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311050862138833], ["'autoclave - CONSQ' (unit, GLO, None)", 0.22990364705567634], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.2674130444563259], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0014073612104023962], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.041556581126541675], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12380938802442686], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206243041968], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.582719891634423e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0003392397684646998], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023710203618431775]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.13032567160465985], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.02856025919231978], ["'market for polysulfone' (kilogram, GLO, None)", 0.0014311050862138833], ["'autoclave - CONSQ' (unit, GLO, None)", 0.22990364705567634], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.0014073612104023962], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.041556581126541675], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.12380938802442686], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 0.0007369206243041968], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021097876036132328], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.013048181818313407], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0023710203618431775], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.03779789355809378], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.020783648356440868], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -0.000454644988468064]]</t>
@@ -331,7 +331,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00641663045079302], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.012637156458947441], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0027931635531222815], ["'market for corrugated board box' (kilogram, RER, None)", -0.0002877865232716777], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0018488798219179012], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.5674007363199128e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.662413857739796e-06], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.282103148466158e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.00023244994291280493], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.028308406166958133], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005226687695812296]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258745874309], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001875279506326794], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662077826571], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002465173095890535], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0011018532044060469], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.260377970968837e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013302021707126374], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0007860545808583138], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.254875019404883e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -3.1688690972129507e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.859137686247595e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109847015427e-05]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258745874309], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001875279506326794], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662077826571], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002465173095890535], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0011018532044060469], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.260377970968837e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013302021707126374], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0007860545808583138], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.254875019404883e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.923589037741595e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.460257214997043e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109847015427e-05]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008274258745874309], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001875279506326794], ["'market for polysulfone' (kilogram, GLO, None)", 0.00011308662077826571], ["'autoclave - CONSQ' (unit, GLO, None)", 0.002465173095890535], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.260377970968837e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00013302021707126374], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0007860545808583138], ["'plastic incineration - CONSQ' (kilogram, CH, None)", -7.254875019404883e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0840061313053258e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0013309189981984787], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -5.753109847015427e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0012722400407415859], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.1107070053536277e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.364167067788892e-06]]</t>
@@ -355,7 +355,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.004836935336202478], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.007124090232087512], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0024605480985103313], ["'market for corrugated board box' (kilogram, RER, None)", 0.015401545596452404], ["'autoclave - CONSQ' (unit, GLO, None)", 0.265409718207267], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 3.0761969545403914e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -0.00011694235781140012], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -1.519680527420248e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.4577899259709922], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.13552441284774017], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.017992982267286534]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0015002078579837714], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.002947522104825776], ["'market for polysulfone' (kilogram, GLO, None)", -2.462426162423828e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.353879624276356], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.1764281599991597], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877536912736269e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00021835919470752997], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0014251974650845828], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1170578758358089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.000624081181198246], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00018475337888777062], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0019805201589151475]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0015002078579837714], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.002947522104825776], ["'market for polysulfone' (kilogram, GLO, None)", -2.462426162423828e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.353879624276356], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.1764281599991597], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877536912736269e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00021835919470752997], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0014251974650845828], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1170578758358089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.69657997268172e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00016565726964593065], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0019805201589151475]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0015002078579837714], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.002947522104825776], ["'market for polysulfone' (kilogram, GLO, None)", -2.462426162423828e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.353879624276356], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.877536912736269e-05], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00021835919470752997], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0014251974650845828], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1170578758358089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.021348557043462713], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.006371676833903969], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0019805201589151475], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.007114991183103746], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", -7.524997203683095e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 0.0004015195511760592]]</t>
@@ -379,7 +379,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.00043936549671096445], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00021030198340775072], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 6.640228741585898e-05], ["'market for corrugated board box' (kilogram, RER, None)", 3.209688874807757e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0004894494819978569], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.8075737732734963e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.379999049242828e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 6.2158064845237485e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.001206659051717142], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.00044046960096224636], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.2060175675686476e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099035011530573], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.3835410471566495e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.295116592280179e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525993093304757], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00012895510974951868], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.255637708610867e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00018454953691657042], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0018144083260954041], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908888124877043e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6449754867408476e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -6.004692834681408e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274853879660528e-06]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099035011530573], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.3835410471566495e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.295116592280179e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525993093304757], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00012895510974951868], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.255637708610867e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00018454953691657042], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0018144083260954041], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908888124877043e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.5558592120432446e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.384047783288737e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274853879660528e-06]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0019099035011530573], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.3835410471566495e-05], ["'market for polysulfone' (kilogram, GLO, None)", 2.295116592280179e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006525993093304757], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.255637708610867e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", -0.00018454953691657042], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0018144083260954041], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 8.908888124877043e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.627128981258171e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.0708667121422387e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -1.3274853879660528e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.574330656401216e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.0778789074884115e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -8.483240416984814e-07]]</t>
@@ -403,7 +403,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 3.2406604839209625e-08], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 4.371740454795094e-08], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 9.277243657539826e-09], ["'market for corrugated board box' (kilogram, RER, None)", 3.6921101083398533e-09], ["'autoclave - CONSQ' (unit, GLO, None)", -2.7572141653237115e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.76707110887944e-11], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.02519887797029e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.174960442176307e-09], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.395398531637439e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.194378445853263e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.6958565778090433e-09]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9426491766395708e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.1597770472873856e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425924151652e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6762855537649483e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.2061027948587906e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652868545236e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.0896080816883752e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.795516717807592e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.267465693499276e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.992018067333234e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.9914819323760337e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378180326523e-10]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9426491766395708e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.1597770472873856e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425924151652e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6762855537649483e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.2061027948587906e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652868545236e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.0896080816883752e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.795516717807592e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.267465693499276e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.310019936203415e-11], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.6822823598456466e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378180326523e-10]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.9426491766395708e-08], ["'alubox production - CONSQ' (kilogram, GLO, None)", 6.1597770472873856e-09], ["'market for polysulfone' (kilogram, GLO, None)", 8.608425924151652e-10], ["'autoclave - CONSQ' (unit, GLO, None)", -3.6762855537649483e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 7.510652868545236e-10], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.0896080816883752e-09], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 2.795516717807592e-08], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.267465693499276e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.049748388027219e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.0316864699476597e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.967378180326523e-10], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 9.80407368217741e-08], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.562483505836129e-09], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -2.30440859646076e-08]]</t>
@@ -427,7 +427,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0004031179612716022], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00031688194945127767], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 7.271005115380369e-05], ["'market for corrugated board box' (kilogram, RER, None)", 4.9243332003334055e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0003609022347007321], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 7.163374611610063e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.234594458749791e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.5362429412564028e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003449670128974452], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0004164358420231673], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.5286996191860338e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003070960080894382], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.269211398770625e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956198466084944e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00048120297960097615], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00019474643097784812], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962649529688e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.8712009608535514e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00029174120768496627], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.5044046244331075e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.7027557547675227e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.677053107043728e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.7833854873210287e-06]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003070960080894382], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.269211398770625e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956198466084944e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00048120297960097615], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00019474643097784812], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962649529688e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.8712009608535514e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00029174120768496627], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.5044046244331075e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -7.306845430034996e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.090272897899688e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.7833854873210287e-06]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003070960080894382], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.269211398770625e-05], ["'market for polysulfone' (kilogram, GLO, None)", 1.8956198466084944e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.00048120297960097615], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 1.4112962649529688e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.8712009608535514e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00029174120768496627], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 3.5044046244331075e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6087177841088403e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.957872055426177e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.7833854873210287e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 6.609494262316809e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.60700925526533e-07], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -5.476802215969629e-07]]</t>
@@ -451,7 +451,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0008352415512125068], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00039482552906790463], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00013041825281917194], ["'market for corrugated board box' (kilogram, RER, None)", 3.385635263405493e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006200248104804521], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.4135592336520852e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.43970046621873e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0809646526848926e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011422173920073871], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009085852921795791], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.773447509214601e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004027011500917893], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.551341798673077e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.841999548302656e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997473072694], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00046844761900500636], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438397664514e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.767399760471116e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00038256609258719977], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.012315866138089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5571255258122894e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2386270429852568e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.153502042957721e-06]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004027011500917893], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.551341798673077e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.841999548302656e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997473072694], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.00046844761900500636], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438397664514e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.767399760471116e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00038256609258719977], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.012315866138089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.419363480813988e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.1106025518223007e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.153502042957721e-06]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004027011500917893], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.551341798673077e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.841999548302656e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008266997473072694], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.0922438397664514e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.767399760471116e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.00038256609258719977], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.012315866138089e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.32661200387578e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.271711447523919e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.153502042957721e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.0008346983236500884], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.352609210925726e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.816900065357072e-06]]</t>
@@ -475,7 +475,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.0009037148835594895], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.00040679824032650375], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.00014548407153177625], ["'market for corrugated board box' (kilogram, RER, None)", 3.497535835844443e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0006330533027543198], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.453901796204471e-06], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.531300892317267e-05], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.0921895910338668e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0011672992032465603], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0009602006732214096], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.8709664602480435e-05]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004126359714556392], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.8163358380385786e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551216100703e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710703390931], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0004793738351618023], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.4545200380261523e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.881131641617839e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003920041728828572], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0352749115739738e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.5913182537355475e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.3089916057210618e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.26084291926656e-06]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004126359714556392], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.8163358380385786e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551216100703e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710703390931], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0004793738351618023], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.4545200380261523e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.881131641617839e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003920041728828572], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0352749115739738e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.472489985951578e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.1736942333537328e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.26084291926656e-06]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0004126359714556392], ["'alubox production - CONSQ' (kilogram, GLO, None)", 3.8163358380385786e-05], ["'market for polysulfone' (kilogram, GLO, None)", 3.881551216100703e-06], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008440710703390931], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 3.4545200380261523e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 1.881131641617839e-05], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0003920041728828572], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.0352749115739738e-07], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -5.443578421792714e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -4.514381030624674e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -4.26084291926656e-06], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.001287200817883402], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.408191702221403e-06], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -4.70091453786396e-06]]</t>
@@ -499,7 +499,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.003185521878836057], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.0009144363615001417], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.0009771925266246438], ["'market for corrugated board box' (kilogram, RER, None)", 0.00011478805017486875], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0008733030259502853], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.172684172432569e-07], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0002539275703157834], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 2.8511539300306573e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0010160956780140584], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0012022390398795694], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0005969229983552544]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008862513639475971], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006035256227173312], ["'market for polysulfone' (kilogram, GLO, None)", 3.468695123717874e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644040346003802], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005029740447802524], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.47864135226874e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 9.403790340562624e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008419387957502172], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310755028083e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.385190356909749e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.6389499144931615e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.570439596953714e-05]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008862513639475971], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006035256227173312], ["'market for polysulfone' (kilogram, GLO, None)", 3.468695123717874e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644040346003802], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0005029740447802524], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.47864135226874e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 9.403790340562624e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008419387957502172], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310755028083e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1522214541662683e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.4695480513311482e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.570439596953714e-05]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008862513639475971], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.0006035256227173312], ["'market for polysulfone' (kilogram, GLO, None)", 3.468695123717874e-05], ["'autoclave - CONSQ' (unit, GLO, None)", 0.0011644040346003802], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.47864135226874e-06], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 9.403790340562624e-06], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.0008419387957502172], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.1081310755028083e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.738456508777253e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.65232379779562e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -6.570439596953714e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010807983691202701], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.4118049789827756e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -3.7183216581917e-06]]</t>
@@ -523,7 +523,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 1.617964811169841e-09], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 6.089477968043231e-10], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 2.4957007956104166e-10], ["'market for corrugated board box' (kilogram, RER, None)", 2.0259940680182063e-10], ["'autoclave - CONSQ' (unit, GLO, None)", 2.8795616320835273e-09], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 1.3162894512098847e-12], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.510817765569482e-09], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 1.9425412246976212e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.772205372815148e-09], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -2.700000005127674e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.0472004641032334e-10]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.862272559209002e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1073181917009404e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622017828901886e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.8394155094447025e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.9507208599422013e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322734191438e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.039437514319005e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.519158931248551e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747797963388e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.505699223656159e-12], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.680769489883488e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.253390643233457e-11]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.862272559209002e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1073181917009404e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622017828901886e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.8394155094447025e-09], ["'cabinet washer - CONSQ' (unit, GLO, None)", 1.9507208599422013e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322734191438e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.039437514319005e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.519158931248551e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747797963388e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.010814533443788e-12], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.3003251554091303e-12], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.253390643233457e-11]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.862272559209002e-10], ["'alubox production - CONSQ' (kilogram, GLO, None)", 1.1073181917009404e-10], ["'market for polysulfone' (kilogram, GLO, None)", 7.622017828901886e-12], ["'autoclave - CONSQ' (unit, GLO, None)", 3.8394155094447025e-09], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 6.817322734191438e-12], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 4.039437514319005e-11], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 6.519158931248551e-10], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 2.2067747797963388e-12], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.2254683391857567e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -1.2694043178434964e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -2.253390643233457e-11], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 4.214499872164426e-10], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 9.61887516496842e-11], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -7.91578847302717e-13]]</t>
@@ -547,7 +547,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 7.330230428911658e-07], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 3.630866709573718e-07], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 1.1629616818947894e-07], ["'market for corrugated board box' (kilogram, RER, None)", 4.866521756731354e-08], ["'autoclave - CONSQ' (unit, GLO, None)", 3.533692680715021e-07], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 6.660971094941787e-10], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 5.683474196567312e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 7.30408175750773e-08], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -4.5612635657266956e-07], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -7.317788109049625e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.284647711703583e-08]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909811620178e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.1152941902530876e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607254173249e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.7115902409533615e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.538955246422292e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348834028274e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9032899465221438e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.4734643210391683e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654249323882e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -6.218133236150798e-10], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -9.975959686692064e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.6154712494720314e-09]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909811620178e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.1152941902530876e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607254173249e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.7115902409533615e-07], ["'cabinet washer - CONSQ' (unit, GLO, None)", 2.538955246422292e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348834028274e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9032899465221438e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.4734643210391683e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654249323882e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -9.661343431211903e-11], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -8.944844493475571e-10], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.6154712494720314e-09]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.708909811620178e-07], ["'alubox production - CONSQ' (kilogram, GLO, None)", 5.1152941902530876e-08], ["'market for polysulfone' (kilogram, GLO, None)", 3.822607254173249e-09], ["'autoclave - CONSQ' (unit, GLO, None)", 4.7115902409533615e-07], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 2.8532348834028274e-09], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 2.9032899465221438e-08], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 4.4734643210391683e-07], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 9.182654249323882e-10], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -2.1270978214875515e-08], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -3.4404562240925375e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -3.6154712494720314e-09], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 1.230645565363294e-07], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 3.616759826094621e-08], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", -1.5997085372593382e-09]]</t>
@@ -571,7 +571,7 @@
     <t>[["'market for polypropylene, granulate' (kilogram, GLO, None)", 0.136310701853276], ["'sheet manufacturing - CONSQ' (kilogram, GLO, None)", 0.008494895352188572], ["'packaging film production, low density polyethylene' (kilogram, RER, None)", 0.015348157736179865], ["'market for corrugated board box' (kilogram, RER, None)", 0.0006152316606741716], ["'autoclave - CONSQ' (unit, GLO, None)", 0.003415552381751155], ["'transport Plastic - CONSQ' (ton kilometer, GLO, None)", 2.1868763226110392e-05], ["'PP incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 0.0006585730094273773], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 8.337900953351902e-05], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.007606695745062313], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.04257459763034326], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -0.0007735081324614357]]</t>
   </si>
   <si>
-    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099308256553427], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001738248751372966], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004331310816344782], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004554069842334873], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0035366365212550458], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720685559372], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006668072052472295], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005794342843725756], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6488608031235652e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.0369812432034526e-05], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.803973322378684e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.514144162804813e-05]]</t>
+    <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099308256553427], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001738248751372966], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004331310816344782], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004554069842334873], ["'cabinet washer - CONSQ' (unit, GLO, None)", 0.0035366365212550458], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720685559372], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006668072052472295], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005794342843725756], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6488608031235652e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -1.6111960843919534e-06], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -5.204074639777623e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.514144162804813e-05]]</t>
   </si>
   <si>
     <t>[["'alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.006099308256553427], ["'alubox production - CONSQ' (kilogram, GLO, None)", 0.001738248751372966], ["'market for polysulfone' (kilogram, GLO, None)", 0.0004331310816344782], ["'autoclave - CONSQ' (unit, GLO, None)", 0.004554069842334873], ["'transport Alu - CONSQ' (ton kilometer, GLO, None)", 0.00022546720685559372], ["'alubox EoL melting - CONSQ' (kilogram, GLO, None)", 0.0006668072052472295], ["'avoided alubox raw materials - CONSQ' (kilogram, GLO, None)", 0.005794342843725756], ["'plastic incineration - CONSQ' (kilogram, CH, None)", 1.6488608031235652e-06], ["'marginal electricity mix - CONSQ' (kilowatt hour, GLO, None)", -0.0003547303442322098], ["'marginal heating grid projection updated - CONSQ' (megajoule, GLO, None)", -0.0020016436281396098], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", -8.514144162804813e-05], ["'production of wet wipe - CONSQ' (unit, GLO, None)", 0.010652108700015112], ["'PE incineration no Energy Recovery - CONSQ' (kilogram, CH, None)", 4.128675746412917e-05], ["'incineration of wet wipe - CONSQ' (kilogram, CH, None)", 2.322724885320458e-05]]</t>
